--- a/cable-delay-calc.xlsx
+++ b/cable-delay-calc.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I21:J22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
